--- a/Companies/Consumer Food/Nestle India Ltd/Pruned_Excel/9_Sep23_Sep24.xlsx
+++ b/Companies/Consumer Food/Nestle India Ltd/Pruned_Excel/9_Sep23_Sep24.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Sep '23</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '23</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '24</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '24</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Sep '24</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '24</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '24</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '23</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '23</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>5,036.82</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>4,583.63</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5,254.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4,813.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>5,104.00</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>4,813.95</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5,254.43</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>4,583.63</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5,036.82</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>5254.43</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>4583.63</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>4958.566000000001</v>
       </c>
     </row>
     <row r="3">
@@ -550,32 +518,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13.16</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>16.79</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>16.79</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>13.16</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>14.975</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>5,036.82</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4,600.42</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5,267.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4,813.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>5,104.00</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>4,813.95</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5,267.59</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4,600.42</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5,036.82</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>5267.59</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>4600.42</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>4964.556</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>1,917.33</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1,977.51</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2,161.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1,943.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>2,025.24</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1,943.22</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2,161.93</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1,977.51</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1,917.33</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>2161.93</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>1917.33</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>2005.046</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>101.76</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>107.56</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>119.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>106.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>105.28</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>106.72</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>119.60</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>107.56</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>101.76</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>119.6</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>101.76</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>108.184</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>172.51</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-180.52</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-5.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-11.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>83.40</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>-11.10</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-5.67</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>-180.52</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>172.51</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>172.51</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>-180.52</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>11.724</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>517.59</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>420.10</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>486.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>505.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>501.67</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>505.40</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>486.88</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>420.10</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>517.59</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>517.59</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>420.1</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>486.328</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>111.16</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>108.69</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>108.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>112.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>121.60</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>112.71</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>108.87</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>108.69</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>111.16</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>121.6</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>108.69</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>112.606</v>
       </c>
     </row>
     <row r="12">
@@ -845,32 +750,23 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>17.85</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-10.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>-10.28</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>17.85</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>17.85</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>-10.28</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>3.785000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>1,102.76</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1,162.80</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1,166.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1,155.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>1,220.68</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1,155.38</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1,166.31</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1,162.80</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1,102.76</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>1220.68</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>1102.76</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>1161.586</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>1,113.71</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>986.43</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1,239.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1,001.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>1,046.13</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1,001.62</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1,239.95</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>986.43</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1,113.71</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>1239.95</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>986.4299999999999</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>1077.568</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>33.27</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>30.30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>26.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>39.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>6.86</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>39.12</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>26.75</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>30.30</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>33.27</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>39.12</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>27.26</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>1,146.98</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1,016.73</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1,266.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1,040.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>1,052.99</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1,040.74</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1,266.70</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1,016.73</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1,146.98</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>1266.7</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>1016.73</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>1104.828</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>31.38</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>22.95</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>26.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>31.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>32.22</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>31.68</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>26.20</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>22.95</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>31.38</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>32.22</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>28.886</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>1,115.60</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>993.78</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1,240.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1,009.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>1,020.77</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1,009.06</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1,240.50</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>993.78</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1,115.60</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>1240.5</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>993.78</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>1075.942</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>106.42</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-107.30</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>290.82</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>10.08</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>-107.30</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>106.42</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>290.82</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>-107.3</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>75.005</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>1,222.02</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>886.48</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1,250.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1,009.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>1,311.59</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1,009.06</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1,250.58</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>886.48</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1,222.02</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>1311.59</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>886.48</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>1135.946</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>313.94</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>230.87</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>316.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>262.46</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>325.23</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>262.46</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>316.41</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>230.87</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>313.94</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>325.23</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>230.87</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>289.782</v>
       </c>
     </row>
     <row r="22">
@@ -1250,37 +1065,28 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>908.08</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>655.61</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>934.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>746.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>986.36</t>
         </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>746.60</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>934.17</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>655.61</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>908.08</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>986.36</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>655.61</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>846.164</v>
       </c>
     </row>
     <row r="23">
@@ -1291,37 +1097,28 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>908.08</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>655.61</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>934.17</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>746.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>986.36</t>
         </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>746.60</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>934.17</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>655.61</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>908.08</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>986.36</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>655.61</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>846.164</v>
       </c>
     </row>
     <row r="24">
@@ -1355,15 +1152,6 @@
           <t>96.42</t>
         </is>
       </c>
-      <c r="H24" s="2" t="n">
-        <v>96.42</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>96.42</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>96.42</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1378,32 +1166,23 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>2,996.33</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2,996.33</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>2996.33</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>2996.33</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>2996.33</v>
       </c>
     </row>
     <row r="26"/>
@@ -1422,37 +1201,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>10.23</t>
         </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>7.74</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>9.69</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>6.80</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>94.18000000000001</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>25.728</v>
       </c>
     </row>
     <row r="29">
@@ -1463,37 +1233,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>10.23</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>7.74</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>9.69</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>6.80</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>94.18000000000001</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>25.728</v>
       </c>
     </row>
     <row r="30"/>
@@ -1512,37 +1273,28 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>10.23</t>
         </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>7.74</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>9.69</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>6.80</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>94.18000000000001</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J32" s="2" t="n">
-        <v>25.728</v>
       </c>
     </row>
     <row r="33">
@@ -1553,37 +1305,28 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>10.23</t>
         </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>7.74</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>9.69</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>6.80</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="n">
-        <v>94.18000000000001</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J33" s="2" t="n">
-        <v>25.728</v>
       </c>
     </row>
     <row r="34"/>
